--- a/biology/Zoologie/Madeleine_Charnier/Madeleine_Charnier.xlsx
+++ b/biology/Zoologie/Madeleine_Charnier/Madeleine_Charnier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Madeleine Charnier (née le 15 juin 1919 à Lille en France et morte le 9 juillet 2002 à Nice) est une zoologiste française.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Madeleine Charnier est titulaire d’une Licence de Sciences obtenue vers 1935 à la faculté des Sciences de Paris. Elle arrive en Afrique fin 1945 pour y rejoindre son frère : d’abord à Kaolack au Sénégal, puis à Cotonou au Dahomey (maintenant la République du Bénin), puis de nouveau au Sénégal à Dakar en 1949 ou 1950. Elle a divorcé en 1953 et a d'abord été embauchée à la bibliothèque universitaire.
 À partir de 1955, elle a travaillé à la faculté de médecine en parasitologie et a passé des certificats de coprologie et d'hématologie. Elle y publie un premier article scientifique sur l’Agame commun ou Margouillat qui deviendra l'espèce de prédilection pour sa recherche pendant les 10 années suivantes (Charnier et Dutarte 1956). C’est le seul article qu’elle aura fait en collaboration durant son travail en Afrique. Le coauteur, J.-P. Dutarte est un médecin qui travaillait sur la tuberculose urinaire.
